--- a/READMEEEE!!!/Planning Naïm.xlsx
+++ b/READMEEEE!!!/Planning Naïm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>CHRONOLOGIE DU PROJET</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Fonction permettant de calculer les statistiques pour une réponse donnée</t>
+  </si>
+  <si>
+    <t>UML</t>
   </si>
   <si>
     <t>*** Cette feuille doit rester masquée ***</t>
@@ -328,7 +331,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
@@ -419,7 +422,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -453,7 +456,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -686,7 +689,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -919,7 +922,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -1152,7 +1155,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -1385,7 +1388,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -1618,7 +1621,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -1851,7 +1854,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -2084,7 +2087,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -2317,7 +2320,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -2550,7 +2553,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -2783,7 +2786,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -3016,7 +3019,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -3249,7 +3252,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -3482,7 +3485,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -3715,7 +3718,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -3948,7 +3951,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -4181,7 +4184,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -4414,7 +4417,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -4647,7 +4650,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -4887,7 +4890,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -5120,7 +5123,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -5353,7 +5356,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -5586,7 +5589,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -5819,7 +5822,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
@@ -6349,7 +6352,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
@@ -6882,7 +6885,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -7115,7 +7118,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -7323,11 +7326,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="13758051"/>
-        <c:axId val="70059400"/>
+        <c:axId val="70695975"/>
+        <c:axId val="78948648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13758051"/>
+        <c:axId val="70695975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7344,14 +7347,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70059400"/>
+        <c:crossAx val="78948648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70059400"/>
+        <c:axId val="78948648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7368,7 +7371,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13758051"/>
+        <c:crossAx val="70695975"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -7396,15 +7399,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>405000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7412,8 +7415,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="378000" y="772560"/>
-        <a:ext cx="10191960" cy="3256920"/>
+        <a:off x="405000" y="763560"/>
+        <a:ext cx="10191600" cy="3256560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7432,10 +7435,10 @@
     <tabColor rgb="FF0CA8C7"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7581,6 +7584,10 @@
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
@@ -7590,9 +7597,15 @@
       <c r="D20" s="10" t="n">
         <v>41975</v>
       </c>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="11" t="s">
@@ -7660,6 +7673,7 @@
       <c r="D26" s="13" t="n">
         <v>41994</v>
       </c>
+      <c r="E26" s="0"/>
       <c r="F26" s="1" t="s">
         <v>14</v>
       </c>
@@ -7676,6 +7690,14 @@
       </c>
       <c r="F27" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="13" t="n">
+        <v>41975</v>
       </c>
     </row>
   </sheetData>
@@ -7717,12 +7739,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="14" t="n">
         <f aca="true">TODAY()</f>
@@ -7759,7 +7781,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="e">
         <f aca="false">SUMPRODUCT( ((activités[début]&gt;=FenêtreDateDébut)+(activités[fin]&gt;=FenêtreDateDébut)&gt;0)*(activités[début]&lt;=(FenêtreDateDébut+FenêtreJours-1)) )</f>
@@ -7916,7 +7938,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="14" t="n">
         <f aca="false">DateDébut+FenêtreDécalage</f>
@@ -7925,7 +7947,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0</v>
@@ -7933,7 +7955,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="15" t="n">
         <f aca="false">'Chronologie du projet'!D20</f>
@@ -7942,7 +7964,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>30</v>
@@ -7950,16 +7972,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" s="14" t="n">
         <f aca="false">FenêtreDateDébut</f>
@@ -11250,7 +11272,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E56" s="0" t="e">
         <f aca="false">IF(E55=$D$3,5,NA())</f>
